--- a/Acompanhamento do download dos artigos.xlsx
+++ b/Acompanhamento do download dos artigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandresanches/Documents/Projetos/NLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D829D7-0819-5541-B7C5-A64AB92A4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE1B8C-BB24-4E48-8B67-8C5C4674168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{8ADA1CC0-93DD-4344-A7A8-A8438D99062B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="6">
   <si>
     <t>OK</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>SEM DADO</t>
+  </si>
+  <si>
+    <t>INCLUIR 0 DEPOIS</t>
+  </si>
+  <si>
+    <t>Todos os artigos do nº 4 são em inglês</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CAE1A-9D59-624C-BA29-1EB03ACBB9BE}">
-  <dimension ref="A1:BW5"/>
+  <dimension ref="A1:BW6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,6 +696,108 @@
       <c r="S2" t="s">
         <v>0</v>
       </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -749,6 +857,108 @@
       <c r="S3" t="s">
         <v>0</v>
       </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -808,6 +1018,108 @@
       <c r="S4" t="s">
         <v>0</v>
       </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -866,6 +1178,119 @@
       </c>
       <c r="S5" t="s">
         <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="AT6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Acompanhamento do download dos artigos.xlsx
+++ b/Acompanhamento do download dos artigos.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandresanches/Documents/Projetos/NLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE1B8C-BB24-4E48-8B67-8C5C4674168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAEA15-2E99-5F4A-9833-3E38E8C72EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{8ADA1CC0-93DD-4344-A7A8-A8438D99062B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estudos Econômicos" sheetId="1" r:id="rId1"/>
+    <sheet name="RBE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="6">
   <si>
     <t>OK</t>
   </si>
@@ -403,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972CAE1A-9D59-624C-BA29-1EB03ACBB9BE}">
-  <dimension ref="A1:BW6"/>
+  <dimension ref="A1:BX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BK27" sqref="BK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -637,493 +637,484 @@
       <c r="BW1">
         <v>2020</v>
       </c>
+      <c r="BX1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>3</v>
       </c>
-      <c r="S2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1156,140 +1147,433 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="AT6" t="s">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="AT7" t="s">
         <v>4</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AW7" t="s">
         <v>5</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BA7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Acompanhamento do download dos artigos.xlsx
+++ b/Acompanhamento do download dos artigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandresanches/Documents/Projetos/NLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAEA15-2E99-5F4A-9833-3E38E8C72EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA55112-C4A5-2243-80CB-D47D585E748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{8ADA1CC0-93DD-4344-A7A8-A8438D99062B}"/>
   </bookViews>
